--- a/CFEA/CFEA254.xlsx
+++ b/CFEA/CFEA254.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>P894718</t>
+          <t>PB56189</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -917,26 +917,18 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9/5/2022 6:36:25 AM</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BOGGY CRK (M) 16</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>S5335947</t>
+          <t>S5336009</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -953,7 +945,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>P894718</t>
+          <t>PB56189</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -963,18 +955,18 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9/13/2022 2:49:55 AM</t>
+          <t>9/5/2022 6:36:25 AM</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>J YOUNG (M) 10</t>
+          <t>BOGGY CRK (M) 16</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>S5335947</t>
+          <t>S5336009</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -997,7 +989,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3240469</t>
+          <t>PB56189</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1005,23 +997,31 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9/13/2022 2:49:55 AM</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>J YOUNG (M) 10</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>S5283408</t>
+          <t>S5336009</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>42.50</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>10/18/2022</t>
+          <t>10/20/2022</t>
         </is>
       </c>
     </row>
@@ -1041,16 +1041,8 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>8/19/2022 12:36:31 AM</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>J YOUNG (M) 12</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
@@ -1060,7 +1052,7 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>42.50</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1087,12 +1079,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>8/23/2022 7:38:05 PM</t>
+          <t>8/19/2022 12:36:31 AM</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 8</t>
+          <t>J YOUNG (M) 12</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -1104,7 +1096,7 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1131,12 +1123,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8/23/2022 1:49:13 AM</t>
+          <t>8/23/2022 7:38:05 PM</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>J YOUNG (M) 13</t>
+          <t>BOGGY CRK (M) 8</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -1148,7 +1140,7 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1175,12 +1167,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8/22/2022 6:53:03 PM</t>
+          <t>8/23/2022 1:49:13 AM</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>J YOUNG (M) 10</t>
+          <t>J YOUNG (M) 13</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1219,7 +1211,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8/23/2022 7:29:53 PM</t>
+          <t>8/22/2022 6:53:03 PM</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1236,7 +1228,7 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1263,12 +1255,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>8/23/2022 9:00:54 PM</t>
+          <t>8/23/2022 7:29:53 PM</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 16</t>
+          <t>J YOUNG (M) 10</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -1280,7 +1272,7 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1307,12 +1299,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>8/23/2022 9:10:01 PM</t>
+          <t>8/23/2022 9:00:54 PM</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>J YOUNG (M) 13</t>
+          <t>BOGGY CRK (M) 16</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -1341,7 +1333,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3240523</t>
+          <t>3240469</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1349,18 +1341,26 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8/23/2022 9:10:01 PM</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>J YOUNG (M) 13</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>S5283409</t>
+          <t>S5283408</t>
         </is>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>20.34</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1385,16 +1385,8 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>9/3/2022 7:06:06 PM</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BOGGY CRK (M) 8</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
@@ -1404,7 +1396,7 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>20.34</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1431,12 +1423,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>9/3/2022 9:30:22 PM</t>
+          <t>9/3/2022 7:06:06 PM</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 17</t>
+          <t>BOGGY CRK (M) 8</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1475,12 +1467,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8/11/2022 11:33:46 PM</t>
+          <t>9/3/2022 9:30:22 PM</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>J YOUNG (M) 13</t>
+          <t>BOGGY CRK (M) 17</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1509,7 +1501,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3241049</t>
+          <t>3240523</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1517,18 +1509,26 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>8/11/2022 11:33:46 PM</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>J YOUNG (M) 13</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>S5283410</t>
+          <t>S5283409</t>
         </is>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>175.00</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1553,16 +1553,8 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>9/4/2022 7:39:22 PM</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>LEE VISTA (ON) 40</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
@@ -1572,7 +1564,7 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>175.00</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1599,12 +1591,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9/6/2022 9:22:43 PM</t>
+          <t>9/4/2022 7:39:22 PM</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 8</t>
+          <t>LEE VISTA (ON) 40</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1616,7 +1608,7 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1643,7 +1635,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>9/17/2022 8:07:27 PM</t>
+          <t>9/6/2022 9:22:43 PM</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1687,12 +1679,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8/22/2022 12:02:11 PM</t>
+          <t>9/17/2022 8:07:27 PM</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 17</t>
+          <t>BOGGY CRK (M) 8</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1704,7 +1696,7 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1731,12 +1723,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>9/4/2022 7:49:30 PM</t>
+          <t>8/22/2022 12:02:11 PM</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>BOGGY 417 (OFF) 39</t>
+          <t>BOGGY CRK (M) 17</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1748,7 +1740,7 @@
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1775,12 +1767,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>9/17/2022 10:56:39 AM</t>
+          <t>9/4/2022 7:49:30 PM</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 16</t>
+          <t>BOGGY 417 (OFF) 39</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1792,7 +1784,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1819,12 +1811,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9/18/2022 8:21:14 PM</t>
+          <t>9/17/2022 10:56:39 AM</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 17</t>
+          <t>BOGGY CRK (M) 16</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1863,12 +1855,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>9/8/2022 2:58:08 PM</t>
+          <t>9/18/2022 8:21:14 PM</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>J YOUNG (M) 12</t>
+          <t>BOGGY CRK (M) 17</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1907,12 +1899,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>8/27/2022 2:43:47 PM</t>
+          <t>9/8/2022 2:58:08 PM</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 17</t>
+          <t>J YOUNG (M) 12</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1951,12 +1943,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>9/1/2022 2:29:44 PM</t>
+          <t>8/27/2022 2:43:47 PM</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 16</t>
+          <t>BOGGY CRK (M) 17</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1995,12 +1987,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8/22/2022 10:17:58 PM</t>
+          <t>9/1/2022 2:29:44 PM</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 8</t>
+          <t>BOGGY CRK (M) 16</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -2039,7 +2031,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>9/1/2022 11:07:53 PM</t>
+          <t>8/22/2022 10:17:58 PM</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2083,7 +2075,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>9/4/2022 7:06:14 PM</t>
+          <t>9/1/2022 11:07:53 PM</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2127,12 +2119,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>9/8/2022 2:50:23 PM</t>
+          <t>9/4/2022 7:06:14 PM</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 17</t>
+          <t>BOGGY CRK (M) 8</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -2171,12 +2163,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>9/18/2022 11:34:09 AM</t>
+          <t>9/8/2022 2:50:23 PM</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>BOGGY CRK( M) 9</t>
+          <t>BOGGY CRK (M) 17</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -2215,12 +2207,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>8/22/2022 12:09:42 PM</t>
+          <t>9/18/2022 11:34:09 AM</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>J YOUNG (M) 12</t>
+          <t>BOGGY CRK( M) 9</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -2232,7 +2224,7 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2259,12 +2251,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8/24/2022 10:27:28 AM</t>
+          <t>8/22/2022 12:09:42 PM</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>BOGGY CRK( M) 16</t>
+          <t>J YOUNG (M) 12</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -2276,7 +2268,7 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2303,12 +2295,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>8/29/2022 10:14:30 AM</t>
+          <t>8/24/2022 10:27:28 AM</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>BOGGY CRK( M) 17</t>
+          <t>BOGGY CRK( M) 16</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -2320,7 +2312,7 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2347,7 +2339,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>8/31/2022 7:26:07 AM</t>
+          <t>8/29/2022 10:14:30 AM</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2391,12 +2383,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>8/31/2022 8:33:18 PM</t>
+          <t>8/31/2022 7:26:07 AM</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>BOGGY CRK( M) 8</t>
+          <t>BOGGY CRK( M) 17</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -2435,12 +2427,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>9/4/2022 7:17:41 PM</t>
+          <t>8/31/2022 8:33:18 PM</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>LEE VISTA (OFF) 44</t>
+          <t>BOGGY CRK( M) 8</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -2452,7 +2444,7 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2479,12 +2471,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9/5/2022 3:06:54 PM</t>
+          <t>9/4/2022 7:17:41 PM</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>BOGGY CRK( M) 8</t>
+          <t>LEE VISTA (OFF) 44</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -2496,7 +2488,7 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2523,7 +2515,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>9/10/2022 10:26:24 PM</t>
+          <t>9/5/2022 3:06:54 PM</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2540,7 +2532,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2567,12 +2559,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>8/26/2022 7:20:48 AM</t>
+          <t>9/10/2022 10:26:24 PM</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>BOGGY CRK( M) 17</t>
+          <t>BOGGY CRK( M) 8</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -2611,12 +2603,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>8/30/2022 12:00:19 PM</t>
+          <t>8/26/2022 7:20:48 AM</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BOGGY CRK( M) 16</t>
+          <t>BOGGY CRK( M) 17</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -2655,12 +2647,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>9/2/2022 9:02:15 AM</t>
+          <t>8/30/2022 12:00:19 PM</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>BOGGY CRK( M) 17</t>
+          <t>BOGGY CRK( M) 16</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -2699,12 +2691,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>9/6/2022 12:03:12 PM</t>
+          <t>9/2/2022 9:02:15 AM</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>J YOUNG( M) 10</t>
+          <t>BOGGY CRK( M) 17</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -2716,7 +2708,7 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2743,12 +2735,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>9/17/2022 11:04:07 AM</t>
+          <t>9/6/2022 12:03:12 PM</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>J YOUNG( M) 12</t>
+          <t>J YOUNG( M) 10</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -2787,12 +2779,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>9/18/2022 1:33:32 PM</t>
+          <t>9/17/2022 11:04:07 AM</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>BOGGY CRK( M) 17</t>
+          <t>J YOUNG( M) 12</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -2831,12 +2823,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8/24/2022 10:35:01 AM</t>
+          <t>9/18/2022 1:33:32 PM</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>J YOUNG (M) 12</t>
+          <t>BOGGY CRK( M) 17</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -2848,7 +2840,7 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -2875,12 +2867,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8/25/2022 5:45:51 AM</t>
+          <t>8/24/2022 10:35:01 AM</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>PONKAN (M) 12</t>
+          <t>J YOUNG (M) 12</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -2892,7 +2884,7 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>4.42</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -2919,12 +2911,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>9/6/2022 10:38:11 AM</t>
+          <t>8/25/2022 5:45:51 AM</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>BOGGY CRK( M) 17</t>
+          <t>PONKAN (M) 12</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -2936,7 +2928,7 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -2963,12 +2955,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>9/11/2022 6:55:27 PM</t>
+          <t>9/6/2022 10:38:11 AM</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>J YOUNG (M) 10</t>
+          <t>BOGGY CRK( M) 17</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -2980,7 +2972,7 @@
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -2997,7 +2989,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3256809</t>
+          <t>3241049</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3005,18 +2997,26 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>9/11/2022 6:55:27 PM</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>J YOUNG (M) 10</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>S5283415</t>
+          <t>S5283410</t>
         </is>
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>49.28</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3041,16 +3041,8 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>8/24/2022 8:34:03 PM</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>BOGGY CRK (M) 17</t>
-        </is>
-      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
@@ -3060,7 +3052,7 @@
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>49.28</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3087,12 +3079,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>8/19/2022 2:57:11 PM</t>
+          <t>8/24/2022 8:34:03 PM</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 16</t>
+          <t>BOGGY CRK (M) 17</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -3131,12 +3123,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>8/20/2022 12:44:55 AM</t>
+          <t>8/19/2022 2:57:11 PM</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 8</t>
+          <t>BOGGY CRK (M) 16</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -3175,7 +3167,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>8/24/2022 7:21:16 AM</t>
+          <t>8/20/2022 12:44:55 AM</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3192,7 +3184,7 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3219,12 +3211,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>8/25/2022 6:54:27 PM</t>
+          <t>8/24/2022 7:21:16 AM</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 17</t>
+          <t>BOGGY CRK (M) 8</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -3236,7 +3228,7 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3263,12 +3255,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>8/12/2022 10:45:53 AM</t>
+          <t>8/25/2022 6:54:27 PM</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 9</t>
+          <t>BOGGY CRK (M) 17</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -3280,7 +3272,7 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3307,12 +3299,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>8/25/2022 4:50:18 AM</t>
+          <t>8/12/2022 10:45:53 AM</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 8</t>
+          <t>BOGGY CRK (M) 9</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -3324,7 +3316,7 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3351,7 +3343,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>8/26/2022 4:59:37 AM</t>
+          <t>8/25/2022 4:50:18 AM</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3385,7 +3377,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>PA87527</t>
+          <t>3256809</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3393,18 +3385,26 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>8/26/2022 4:59:37 AM</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>BOGGY CRK (M) 8</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>S5296042</t>
+          <t>S5283415</t>
         </is>
       </c>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr">
         <is>
-          <t>9.24</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3429,16 +3429,8 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>8/29/2022 1:19:24 PM</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>BOGGY 417 (ON) 32</t>
-        </is>
-      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
@@ -3448,7 +3440,7 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>9.24</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3475,12 +3467,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>9/11/2022 8:37:39 PM</t>
+          <t>8/29/2022 1:19:24 PM</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>BOGGY CRK (M) 17</t>
+          <t>BOGGY 417 (ON) 32</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -3492,7 +3484,7 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3509,7 +3501,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>PA89640</t>
+          <t>PA87527</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3517,18 +3509,26 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>9/11/2022 8:37:39 PM</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>BOGGY CRK (M) 17</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>S5296043</t>
+          <t>S5296042</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3553,16 +3553,8 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>8/21/2022 6:45:10 AM</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>FOREST LAKE (M) 6</t>
-        </is>
-      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
@@ -3572,7 +3564,7 @@
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3599,12 +3591,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>8/21/2022 6:55:31 AM</t>
+          <t>8/21/2022 6:45:10 AM</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>INDEPENDENCE(M) 7</t>
+          <t>FOREST LAKE (M) 6</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -3633,7 +3625,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>PA96307</t>
+          <t>PA89640</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3641,18 +3633,26 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8/21/2022 6:55:31 AM</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>INDEPENDENCE(M) 7</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>S5296044</t>
+          <t>S5296043</t>
         </is>
       </c>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3677,16 +3677,8 @@
           <t>IN</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>8/22/2022 11:12:39 PM</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>BOGGY CRK (M) 17</t>
-        </is>
-      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
@@ -3696,7 +3688,7 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>6.78</t>
+          <t>13.56</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -3723,12 +3715,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8/22/2022 11:20:30 PM</t>
+          <t>8/22/2022 11:12:39 PM</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>J YOUNG (M) 13</t>
+          <t>BOGGY CRK (M) 17</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -3744,6 +3736,50 @@
         </is>
       </c>
       <c r="J77" t="inlineStr">
+        <is>
+          <t>10/18/2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CENTRAL FLORIDA EXPRESSWAY AUTHORITY</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>PA96307</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>8/22/2022 11:20:30 PM</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>J YOUNG (M) 13</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>S5296044</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>10/18/2022</t>
         </is>
